--- a/stock_data/master/pair_trade.xlsx
+++ b/stock_data/master/pair_trade.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="85">
   <si>
     <t>サヤ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,84 +279,138 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>損益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保有銘柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現在値</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>損益率合計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>約定単価</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>約定数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>約定代金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>損益額合計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>決済管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>建玉管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>買</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
+    <t>新規約定日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>経過日数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>実行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>決済</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反映</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現在参照日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MTN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仕掛け日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保有銘柄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="0"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>売</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制度信用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="FangSong"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>買</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="FangSong"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>売値</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>現在値</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>損益率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>損益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>損益率合計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>損益合計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>銘柄数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手数料+税</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>その他費用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,10 +418,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="5">
+    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]\-&quot;¥&quot;#,##0"/>
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);\(&quot;¥&quot;#,##0\)"/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="179" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="180" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,6 +447,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="FangSong"/>
@@ -396,14 +455,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="FangSong"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="FangSong"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="FangSong"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,6 +544,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,15 +610,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -536,12 +629,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -549,9 +642,42 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -567,19 +693,17 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10761277057364631"/>
-          <c:y val="0.32811630502904771"/>
-          <c:w val="0.65364151343754373"/>
-          <c:h val="0.6171951745552291"/>
+          <c:x val="0.10761277057364635"/>
+          <c:y val="0.32811630502904787"/>
+          <c:w val="0.65364151343754395"/>
+          <c:h val="0.61719517455522921"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -615,25 +739,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="74533120"/>
-        <c:axId val="74764288"/>
+        <c:axId val="95625216"/>
+        <c:axId val="95626752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74533120"/>
+        <c:axId val="95625216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74764288"/>
+        <c:crossAx val="95626752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74764288"/>
+        <c:axId val="95626752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -641,20 +765,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74533120"/>
+        <c:crossAx val="95625216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1025,112 +1148,253 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:M5"/>
+  <dimension ref="B1:X5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="6.25" customWidth="1"/>
-    <col min="5" max="5" width="7.25" customWidth="1"/>
-    <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="12" max="12" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="4.25" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="3.5" customWidth="1"/>
+    <col min="6" max="6" width="8.875" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
+    <col min="8" max="8" width="9.625" customWidth="1"/>
+    <col min="9" max="9" width="10.75" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="10.25" customWidth="1"/>
+    <col min="12" max="12" width="9.5" customWidth="1"/>
+    <col min="13" max="13" width="12.125" customWidth="1"/>
+    <col min="14" max="14" width="9.5" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="16" max="16" width="14" customWidth="1"/>
+    <col min="18" max="18" width="12.75" customWidth="1"/>
+    <col min="19" max="19" width="12.125" customWidth="1"/>
+    <col min="21" max="21" width="11.25" customWidth="1"/>
+    <col min="22" max="22" width="10" customWidth="1"/>
+    <col min="23" max="23" width="12.25" customWidth="1"/>
+    <col min="24" max="24" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13">
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="2:24">
+      <c r="C1" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="U1" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24">
+      <c r="C3" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q3" s="29" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="C3" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="26" t="s">
+      <c r="R3" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="S3" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="U3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="V3" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" s="26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
+      <c r="W3" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="X3" s="31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24">
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="7">
-        <v>8001</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="30">
-        <v>0.05</v>
-      </c>
-      <c r="K4" s="7">
-        <v>4000</v>
-      </c>
-      <c r="L4" s="31">
-        <v>-3</v>
-      </c>
-      <c r="M4" s="31"/>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="C5" s="7"/>
-      <c r="D5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="7">
-        <v>8002</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
+      <c r="C4" s="27">
+        <v>1</v>
+      </c>
+      <c r="D4" s="36">
+        <v>43726</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="37">
+        <v>6472</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="35">
+        <v>320</v>
+      </c>
+      <c r="I4" s="38">
+        <v>1200</v>
+      </c>
+      <c r="J4" s="41">
+        <f>H4*I4</f>
+        <v>384000</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="39">
+        <v>310</v>
+      </c>
+      <c r="M4" s="33">
+        <f>180*2</f>
+        <v>360</v>
+      </c>
+      <c r="N4" s="39">
+        <v>162</v>
+      </c>
+      <c r="O4" s="39">
+        <v>92</v>
+      </c>
+      <c r="P4" s="34">
+        <f>(H4-L4)*I4-M4-N4-O4</f>
+        <v>11386</v>
+      </c>
+      <c r="Q4" s="42">
+        <f>P4/J4</f>
+        <v>2.9651041666666666E-2</v>
+      </c>
+      <c r="R4" s="40">
+        <f>P4+P5</f>
+        <v>1712.0000000000182</v>
+      </c>
+      <c r="S4" s="43">
+        <f>Q4+Q5</f>
+        <v>2.6859396486045017E-3</v>
+      </c>
+      <c r="U4" s="44">
+        <v>43738</v>
+      </c>
+      <c r="V4" s="27">
+        <f>DATEDIF(D4,U4,"d")</f>
+        <v>12</v>
+      </c>
+      <c r="W4" s="27"/>
+      <c r="X4" s="32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24">
+      <c r="B5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="36">
+        <v>43726</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="37">
+        <v>6752</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="35">
+        <v>896.9</v>
+      </c>
+      <c r="I5" s="38">
+        <v>400</v>
+      </c>
+      <c r="J5" s="41">
+        <f>H5*I5</f>
+        <v>358760</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="39">
+        <v>875.6</v>
+      </c>
+      <c r="M5" s="33">
+        <f>180*2</f>
+        <v>360</v>
+      </c>
+      <c r="N5" s="39">
+        <v>386</v>
+      </c>
+      <c r="O5" s="39">
+        <v>408</v>
+      </c>
+      <c r="P5" s="34">
+        <f>(L5-H5)*I5-M5-N5-O5</f>
+        <v>-9673.9999999999818</v>
+      </c>
+      <c r="Q5" s="42">
+        <f>P5/J5</f>
+        <v>-2.6965102018062164E-2</v>
+      </c>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
+  <mergeCells count="8">
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1179,7 +1443,7 @@
       <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="11">
         <v>2000000</v>
       </c>
     </row>
@@ -1187,22 +1451,22 @@
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>43737</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="7">
         <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" s="10"/>
+      <c r="B5" s="8"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="12"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1217,16 +1481,16 @@
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>0.05</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>0.2</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="7">
         <v>0.05</v>
       </c>
     </row>
@@ -1243,7 +1507,7 @@
       <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="7">
         <v>0.05</v>
       </c>
     </row>
@@ -1278,10 +1542,10 @@
       <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8">
       <c r="B11" s="4" t="s">
@@ -1290,7 +1554,7 @@
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1302,7 +1566,7 @@
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" s="4" t="s">
@@ -1311,7 +1575,7 @@
       <c r="C13" s="3">
         <v>200</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="1" t="s">
@@ -1340,18 +1604,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
       <c r="K2" s="1" t="s">
         <v>33</v>
       </c>
@@ -1359,28 +1623,28 @@
     <row r="3" spans="1:12">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="16" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -1427,27 +1691,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:11">
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="3:11">
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="23"/>
       <c r="E2">
         <v>8804</v>
       </c>
@@ -1456,61 +1720,61 @@
       </c>
     </row>
     <row r="3" spans="3:11">
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="23"/>
       <c r="E3">
         <v>5711</v>
       </c>
     </row>
     <row r="4" spans="3:11">
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="3:11">
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="23"/>
     </row>
     <row r="6" spans="3:11">
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="23"/>
     </row>
     <row r="7" spans="3:11">
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="3:11">
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="23"/>
       <c r="K8" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="3:11">
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="23"/>
       <c r="K9" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="3:11">
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="21"/>
+      <c r="D10" s="23"/>
       <c r="K10" s="1" t="s">
         <v>55</v>
       </c>
@@ -1521,10 +1785,10 @@
       </c>
     </row>
     <row r="16" spans="3:11">
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="18" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="1"/>
@@ -1539,27 +1803,27 @@
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="3"/>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="19" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="24">
+      <c r="B19" s="20">
         <v>43737</v>
       </c>
       <c r="C19" s="3"/>
@@ -1570,7 +1834,7 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="24">
+      <c r="B20" s="20">
         <v>43737</v>
       </c>
       <c r="C20" s="3"/>
@@ -1581,7 +1845,7 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="25"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1590,7 +1854,7 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="25"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1599,7 +1863,7 @@
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="25"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1608,7 +1872,7 @@
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="25"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1617,7 +1881,7 @@
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="25"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1626,7 +1890,7 @@
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="25"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>

--- a/stock_data/master/pair_trade.xlsx
+++ b/stock_data/master/pair_trade.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
   <si>
     <t>サヤ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,10 +347,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>反映</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>現在参照日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -413,6 +409,18 @@
     <t>その他費用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>反映</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日立建機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王子ホールディングス</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -421,9 +429,9 @@
   <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]\-&quot;¥&quot;#,##0"/>
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);\(&quot;¥&quot;#,##0\)"/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="179" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="180" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="178" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -610,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -633,18 +641,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -654,16 +651,13 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -674,12 +668,30 @@
     </xf>
     <xf numFmtId="6" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -700,10 +712,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10761277057364635"/>
-          <c:y val="0.32811630502904787"/>
-          <c:w val="0.65364151343754395"/>
-          <c:h val="0.61719517455522921"/>
+          <c:x val="0.10761277057364639"/>
+          <c:y val="0.32811630502904798"/>
+          <c:w val="0.65364151343754417"/>
+          <c:h val="0.61719517455522932"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -739,25 +751,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="95625216"/>
-        <c:axId val="95626752"/>
+        <c:axId val="129057152"/>
+        <c:axId val="129058688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95625216"/>
+        <c:axId val="129057152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95626752"/>
+        <c:crossAx val="129058688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95626752"/>
+        <c:axId val="129058688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -765,7 +777,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95625216"/>
+        <c:crossAx val="129057152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -777,7 +789,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1148,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:X5"/>
+  <dimension ref="B1:X7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1162,7 +1174,7 @@
     <col min="4" max="4" width="11.75" customWidth="1"/>
     <col min="5" max="5" width="3.5" customWidth="1"/>
     <col min="6" max="6" width="8.875" customWidth="1"/>
-    <col min="7" max="7" width="16.875" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="9.625" customWidth="1"/>
     <col min="9" max="9" width="10.75" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
@@ -1181,72 +1193,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24">
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="U1" s="30" t="s">
+      <c r="D1" s="25"/>
+      <c r="U1" s="25" t="s">
         <v>67</v>
       </c>
     </row>
+    <row r="2" spans="2:24">
+      <c r="R2">
+        <f>SUM(R4:R100)</f>
+        <v>-856</v>
+      </c>
+    </row>
     <row r="3" spans="2:24">
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="24" t="s">
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="O3" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="O3" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="P3" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q3" s="29" t="s">
+      <c r="P3" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q3" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="R3" s="29" t="s">
+      <c r="R3" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="S3" s="29" t="s">
+      <c r="S3" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="U3" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="V3" s="31" t="s">
+      <c r="U3" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="V3" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="W3" s="31" t="s">
+      <c r="W3" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="X3" s="31" t="s">
+      <c r="X3" s="26" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1254,135 +1272,275 @@
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="37">
         <v>1</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="30">
         <v>43726</v>
       </c>
-      <c r="E4" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="37">
+      <c r="E4" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="31">
         <v>6472</v>
       </c>
-      <c r="G4" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="35">
+      <c r="G4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="29">
         <v>320</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="32">
         <v>1200</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4" s="35">
         <f>H4*I4</f>
         <v>384000</v>
       </c>
-      <c r="K4" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" s="39">
-        <v>310</v>
-      </c>
-      <c r="M4" s="33">
+      <c r="K4" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="33">
+        <v>322</v>
+      </c>
+      <c r="M4" s="27">
         <f>180*2</f>
         <v>360</v>
       </c>
-      <c r="N4" s="39">
+      <c r="N4" s="33">
         <v>162</v>
       </c>
-      <c r="O4" s="39">
+      <c r="O4" s="33">
         <v>92</v>
       </c>
-      <c r="P4" s="34">
+      <c r="P4" s="28">
         <f>(H4-L4)*I4-M4-N4-O4</f>
-        <v>11386</v>
-      </c>
-      <c r="Q4" s="42">
+        <v>-3014</v>
+      </c>
+      <c r="Q4" s="36">
         <f>P4/J4</f>
-        <v>2.9651041666666666E-2</v>
+        <v>-7.8489583333333328E-3</v>
       </c>
       <c r="R4" s="40">
         <f>P4+P5</f>
-        <v>1712.0000000000182</v>
-      </c>
-      <c r="S4" s="43">
+        <v>-2568</v>
+      </c>
+      <c r="S4" s="41">
         <f>Q4+Q5</f>
-        <v>2.6859396486045017E-3</v>
-      </c>
-      <c r="U4" s="44">
-        <v>43738</v>
-      </c>
-      <c r="V4" s="27">
-        <f>DATEDIF(D4,U4,"d")</f>
-        <v>12</v>
-      </c>
-      <c r="W4" s="27"/>
-      <c r="X4" s="32" t="s">
+        <v>-6.605787411268443E-3</v>
+      </c>
+      <c r="U4" s="43">
+        <f ca="1">TODAY()</f>
+        <v>43739</v>
+      </c>
+      <c r="V4" s="37">
+        <f ca="1">DATEDIF(D4,U4,"d")</f>
+        <v>13</v>
+      </c>
+      <c r="W4" s="37"/>
+      <c r="X4" s="42" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:24">
       <c r="B5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="36">
+        <v>84</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="30">
         <v>43726</v>
       </c>
-      <c r="E5" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="37">
+      <c r="E5" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="31">
         <v>6752</v>
       </c>
-      <c r="G5" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="35">
+      <c r="G5" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="29">
         <v>896.9</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="32">
         <v>400</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="35">
         <f>H5*I5</f>
         <v>358760</v>
       </c>
-      <c r="K5" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" s="39">
-        <v>875.6</v>
-      </c>
-      <c r="M5" s="33">
+      <c r="K5" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" s="33">
+        <v>900.9</v>
+      </c>
+      <c r="M5" s="27">
         <f>180*2</f>
         <v>360</v>
       </c>
-      <c r="N5" s="39">
+      <c r="N5" s="33">
         <v>386</v>
       </c>
-      <c r="O5" s="39">
+      <c r="O5" s="33">
         <v>408</v>
       </c>
-      <c r="P5" s="34">
+      <c r="P5" s="28">
         <f>(L5-H5)*I5-M5-N5-O5</f>
-        <v>-9673.9999999999818</v>
-      </c>
-      <c r="Q5" s="42">
+        <v>446</v>
+      </c>
+      <c r="Q5" s="36">
         <f>P5/J5</f>
-        <v>-2.6965102018062164E-2</v>
+        <v>1.2431709220648902E-3</v>
       </c>
       <c r="R5" s="40"/>
       <c r="S5" s="40"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+    </row>
+    <row r="6" spans="2:24">
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="37">
+        <v>2</v>
+      </c>
+      <c r="D6" s="30">
+        <v>43732</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="31">
+        <v>6305</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="29">
+        <v>2638</v>
+      </c>
+      <c r="I6" s="32">
+        <v>300</v>
+      </c>
+      <c r="J6" s="35">
+        <f>H6*I6</f>
+        <v>791400</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="29">
+        <v>2619</v>
+      </c>
+      <c r="M6" s="27">
+        <f>360*2</f>
+        <v>720</v>
+      </c>
+      <c r="N6" s="34">
+        <v>162</v>
+      </c>
+      <c r="O6" s="34">
+        <v>92</v>
+      </c>
+      <c r="P6" s="28">
+        <f>(H6-L6)*I6-M6-N6-O6</f>
+        <v>4726</v>
+      </c>
+      <c r="Q6" s="36">
+        <f>P6/J6</f>
+        <v>5.971695729087693E-3</v>
+      </c>
+      <c r="R6" s="40">
+        <f>P6+P7</f>
+        <v>1712</v>
+      </c>
+      <c r="S6" s="41">
+        <f>Q6+Q7</f>
+        <v>2.1443941417861058E-3</v>
+      </c>
+      <c r="U6" s="43">
+        <f ca="1">TODAY()</f>
+        <v>43739</v>
+      </c>
+      <c r="V6" s="37">
+        <f ca="1">DATEDIF(D6,U6,"d")</f>
+        <v>7</v>
+      </c>
+      <c r="W6" s="37"/>
+      <c r="X6" s="42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24">
+      <c r="B7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="30">
+        <v>43732</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="31">
+        <v>3861</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="29">
+        <v>525</v>
+      </c>
+      <c r="I7" s="32">
+        <v>1500</v>
+      </c>
+      <c r="J7" s="35">
+        <f>H7*I7</f>
+        <v>787500</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="29">
+        <v>524</v>
+      </c>
+      <c r="M7" s="27">
+        <f>360*2</f>
+        <v>720</v>
+      </c>
+      <c r="N7" s="34">
+        <v>386</v>
+      </c>
+      <c r="O7" s="34">
+        <v>408</v>
+      </c>
+      <c r="P7" s="28">
+        <f>(L7-H7)*I7-M7-N7-O7</f>
+        <v>-3014</v>
+      </c>
+      <c r="Q7" s="36">
+        <f>P7/J7</f>
+        <v>-3.8273015873015871E-3</v>
+      </c>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="15">
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="R4:R5"/>
@@ -1708,10 +1866,10 @@
       </c>
     </row>
     <row r="2" spans="3:11">
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="23"/>
+      <c r="D2" s="45"/>
       <c r="E2">
         <v>8804</v>
       </c>
@@ -1720,61 +1878,61 @@
       </c>
     </row>
     <row r="3" spans="3:11">
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="23"/>
+      <c r="D3" s="45"/>
       <c r="E3">
         <v>5711</v>
       </c>
     </row>
     <row r="4" spans="3:11">
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="23"/>
+      <c r="D4" s="45"/>
     </row>
     <row r="5" spans="3:11">
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="23"/>
+      <c r="D5" s="45"/>
     </row>
     <row r="6" spans="3:11">
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="45"/>
     </row>
     <row r="7" spans="3:11">
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="23"/>
+      <c r="D7" s="45"/>
     </row>
     <row r="8" spans="3:11">
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="45"/>
       <c r="K8" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="3:11">
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="23"/>
+      <c r="D9" s="45"/>
       <c r="K9" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="3:11">
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="23"/>
+      <c r="D10" s="45"/>
       <c r="K10" s="1" t="s">
         <v>55</v>
       </c>

--- a/stock_data/master/pair_trade.xlsx
+++ b/stock_data/master/pair_trade.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="89">
   <si>
     <t>サヤ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,10 +143,6 @@
     </r>
   </si>
   <si>
-    <t>銘柄抽出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>同業/異業</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -410,15 +406,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>反映</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日立建機</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>王子ホールディングス</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>選択</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽出データパス</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Stock\pairs_trade\pair_trade\stock_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>データ更新日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -692,6 +700,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -705,7 +716,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -784,6 +797,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1115,10 +1129,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1130,6 +1145,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1145,6 +1161,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1160,10 +1177,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:X7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1194,83 +1212,90 @@
   <sheetData>
     <row r="1" spans="2:24">
       <c r="C1" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1" s="25"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="49">
+        <v>43741</v>
+      </c>
       <c r="U1" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="2:24">
       <c r="R2">
         <f>SUM(R4:R100)</f>
-        <v>-856</v>
+        <v>16744</v>
       </c>
     </row>
     <row r="3" spans="2:24">
       <c r="C3" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
       <c r="H3" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="J3" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="K3" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="L3" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q3" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="S3" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="N3" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="P3" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q3" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="R3" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="S3" s="24" t="s">
-        <v>61</v>
-      </c>
       <c r="U3" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V3" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="W3" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="W3" s="26" t="s">
+      <c r="X3" s="26" t="s">
         <v>71</v>
-      </c>
-      <c r="X3" s="26" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="2:24">
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="C4" s="37">
         <v>1</v>
@@ -1279,13 +1304,13 @@
         <v>43726</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="31">
         <v>6472</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H4" s="29">
         <v>320</v>
@@ -1298,10 +1323,10 @@
         <v>384000</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" s="33">
-        <v>322</v>
+        <v>78</v>
+      </c>
+      <c r="L4" s="34">
+        <v>309</v>
       </c>
       <c r="M4" s="27">
         <f>180*2</f>
@@ -1315,49 +1340,47 @@
       </c>
       <c r="P4" s="28">
         <f>(H4-L4)*I4-M4-N4-O4</f>
-        <v>-3014</v>
+        <v>12586</v>
       </c>
       <c r="Q4" s="36">
         <f>P4/J4</f>
-        <v>-7.8489583333333328E-3</v>
+        <v>3.2776041666666665E-2</v>
       </c>
       <c r="R4" s="40">
         <f>P4+P5</f>
-        <v>-2568</v>
+        <v>4832</v>
       </c>
       <c r="S4" s="41">
         <f>Q4+Q5</f>
-        <v>-6.605787411268443E-3</v>
+        <v>1.1162706846731332E-2</v>
       </c>
       <c r="U4" s="43">
         <f ca="1">TODAY()</f>
-        <v>43739</v>
+        <v>43741</v>
       </c>
       <c r="V4" s="37">
         <f ca="1">DATEDIF(D4,U4,"d")</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W4" s="37"/>
       <c r="X4" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:24">
-      <c r="B5" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="37"/>
       <c r="D5" s="30">
         <v>43726</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" s="31">
         <v>6752</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H5" s="29">
         <v>896.9</v>
@@ -1370,10 +1393,10 @@
         <v>358760</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="L5" s="33">
-        <v>900.9</v>
+        <v>78</v>
+      </c>
+      <c r="L5" s="34">
+        <v>880.4</v>
       </c>
       <c r="M5" s="27">
         <f>180*2</f>
@@ -1387,11 +1410,11 @@
       </c>
       <c r="P5" s="28">
         <f>(L5-H5)*I5-M5-N5-O5</f>
-        <v>446</v>
+        <v>-7754</v>
       </c>
       <c r="Q5" s="36">
         <f>P5/J5</f>
-        <v>1.2431709220648902E-3</v>
+        <v>-2.1613334819935333E-2</v>
       </c>
       <c r="R5" s="40"/>
       <c r="S5" s="40"/>
@@ -1402,7 +1425,7 @@
     </row>
     <row r="6" spans="2:24">
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="37">
         <v>2</v>
@@ -1411,13 +1434,13 @@
         <v>43732</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" s="31">
         <v>6305</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H6" s="29">
         <v>2638</v>
@@ -1430,10 +1453,10 @@
         <v>791400</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L6" s="29">
-        <v>2619</v>
+        <v>2495</v>
       </c>
       <c r="M6" s="27">
         <f>360*2</f>
@@ -1447,49 +1470,47 @@
       </c>
       <c r="P6" s="28">
         <f>(H6-L6)*I6-M6-N6-O6</f>
-        <v>4726</v>
+        <v>41926</v>
       </c>
       <c r="Q6" s="36">
         <f>P6/J6</f>
-        <v>5.971695729087693E-3</v>
+        <v>5.297700277988375E-2</v>
       </c>
       <c r="R6" s="40">
         <f>P6+P7</f>
-        <v>1712</v>
+        <v>11912</v>
       </c>
       <c r="S6" s="41">
         <f>Q6+Q7</f>
-        <v>2.1443941417861058E-3</v>
+        <v>1.4863986906867875E-2</v>
       </c>
       <c r="U6" s="43">
         <f ca="1">TODAY()</f>
-        <v>43739</v>
+        <v>43741</v>
       </c>
       <c r="V6" s="37">
         <f ca="1">DATEDIF(D6,U6,"d")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W6" s="37"/>
       <c r="X6" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:24">
-      <c r="B7" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="37"/>
       <c r="D7" s="30">
         <v>43732</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" s="31">
         <v>3861</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H7" s="29">
         <v>525</v>
@@ -1502,10 +1523,10 @@
         <v>787500</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L7" s="29">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="M7" s="27">
         <f>360*2</f>
@@ -1519,11 +1540,11 @@
       </c>
       <c r="P7" s="28">
         <f>(L7-H7)*I7-M7-N7-O7</f>
-        <v>-3014</v>
+        <v>-30014</v>
       </c>
       <c r="Q7" s="36">
         <f>P7/J7</f>
-        <v>-3.8273015873015871E-3</v>
+        <v>-3.8113015873015875E-2</v>
       </c>
       <c r="R7" s="40"/>
       <c r="S7" s="40"/>
@@ -1553,11 +1574,13 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1571,10 +1594,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C17" sqref="C17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1714,7 +1738,7 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1736,11 +1760,23 @@
       <c r="D13" s="6"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C17:F17"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1749,6 +1785,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A2:L4"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -1763,61 +1800,61 @@
   <sheetData>
     <row r="2" spans="1:12">
       <c r="C2" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="G2" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>30</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="J3" s="16" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>8804</v>
@@ -1831,9 +1868,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:K26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -1850,16 +1888,16 @@
   <sheetData>
     <row r="1" spans="3:11">
       <c r="F1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="J1" s="16" t="s">
         <v>12</v>
@@ -1867,19 +1905,19 @@
     </row>
     <row r="2" spans="3:11">
       <c r="C2" s="44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="45"/>
       <c r="E2">
         <v>8804</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="3:11">
       <c r="C3" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="45"/>
       <c r="E3">
@@ -1888,35 +1926,35 @@
     </row>
     <row r="4" spans="3:11">
       <c r="C4" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="45"/>
     </row>
     <row r="5" spans="3:11">
       <c r="C5" s="44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="45"/>
     </row>
     <row r="6" spans="3:11">
       <c r="C6" s="44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="45"/>
     </row>
     <row r="7" spans="3:11">
       <c r="C7" s="44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="45"/>
     </row>
     <row r="8" spans="3:11">
       <c r="C8" s="44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="45"/>
       <c r="K8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="3:11">
@@ -1925,7 +1963,7 @@
       </c>
       <c r="D9" s="45"/>
       <c r="K9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="3:11">
@@ -1934,20 +1972,20 @@
       </c>
       <c r="D10" s="45"/>
       <c r="K10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="3:11">
       <c r="K11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="3:11">
       <c r="C16" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>45</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>46</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -1962,19 +2000,19 @@
     <row r="18" spans="2:8">
       <c r="B18" s="3"/>
       <c r="C18" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="E18" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="F18" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="G18" s="19" t="s">
         <v>51</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>52</v>
       </c>
       <c r="H18" s="19" t="s">
         <v>0</v>
@@ -2076,6 +2114,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2086,12 +2125,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2102,6 +2141,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2117,9 +2157,12 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>

--- a/stock_data/master/pair_trade.xlsx
+++ b/stock_data/master/pair_trade.xlsx
@@ -1181,7 +1181,7 @@
   <dimension ref="B1:X7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/stock_data/master/pair_trade.xlsx
+++ b/stock_data/master/pair_trade.xlsx
@@ -441,7 +441,7 @@
     <numFmt numFmtId="178" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,6 +506,12 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="FangSong"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="11">
@@ -676,7 +682,21 @@
     </xf>
     <xf numFmtId="6" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -685,24 +705,10 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -716,19 +722,17 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10761277057364639"/>
-          <c:y val="0.32811630502904798"/>
-          <c:w val="0.65364151343754417"/>
-          <c:h val="0.61719517455522932"/>
+          <c:x val="0.10761277057364649"/>
+          <c:y val="0.32811630502904843"/>
+          <c:w val="0.65364151343754506"/>
+          <c:h val="0.61719517455522965"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -764,25 +768,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="129057152"/>
-        <c:axId val="129058688"/>
+        <c:axId val="107692416"/>
+        <c:axId val="107693952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="129057152"/>
+        <c:axId val="107692416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129058688"/>
+        <c:crossAx val="107693952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129058688"/>
+        <c:axId val="107693952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -790,20 +794,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129057152"/>
+        <c:crossAx val="107692416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1181,7 +1184,7 @@
   <dimension ref="B1:X7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1219,7 +1222,7 @@
       <c r="I1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="49">
+      <c r="K1" s="38">
         <v>43741</v>
       </c>
       <c r="U1" s="25" t="s">
@@ -1239,11 +1242,11 @@
       <c r="D3" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
       <c r="H3" s="22" t="s">
         <v>61</v>
       </c>
@@ -1297,7 +1300,7 @@
       <c r="B4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="39">
         <v>1</v>
       </c>
       <c r="D4" s="30">
@@ -1346,30 +1349,30 @@
         <f>P4/J4</f>
         <v>3.2776041666666665E-2</v>
       </c>
-      <c r="R4" s="40">
+      <c r="R4" s="41">
         <f>P4+P5</f>
         <v>4832</v>
       </c>
-      <c r="S4" s="41">
+      <c r="S4" s="42">
         <f>Q4+Q5</f>
         <v>1.1162706846731332E-2</v>
       </c>
       <c r="U4" s="43">
         <f ca="1">TODAY()</f>
-        <v>43741</v>
-      </c>
-      <c r="V4" s="37">
+        <v>43743</v>
+      </c>
+      <c r="V4" s="39">
         <f ca="1">DATEDIF(D4,U4,"d")</f>
-        <v>15</v>
-      </c>
-      <c r="W4" s="37"/>
-      <c r="X4" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="W4" s="39"/>
+      <c r="X4" s="40" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:24">
       <c r="B5" s="1"/>
-      <c r="C5" s="37"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="30">
         <v>43726</v>
       </c>
@@ -1416,18 +1419,18 @@
         <f>P5/J5</f>
         <v>-2.1613334819935333E-2</v>
       </c>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="37"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
     </row>
     <row r="6" spans="2:24">
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="39">
         <v>2</v>
       </c>
       <c r="D6" s="30">
@@ -1439,7 +1442,7 @@
       <c r="F6" s="31">
         <v>6305</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="37" t="s">
         <v>83</v>
       </c>
       <c r="H6" s="29">
@@ -1476,30 +1479,30 @@
         <f>P6/J6</f>
         <v>5.297700277988375E-2</v>
       </c>
-      <c r="R6" s="40">
+      <c r="R6" s="41">
         <f>P6+P7</f>
         <v>11912</v>
       </c>
-      <c r="S6" s="41">
+      <c r="S6" s="42">
         <f>Q6+Q7</f>
         <v>1.4863986906867875E-2</v>
       </c>
       <c r="U6" s="43">
         <f ca="1">TODAY()</f>
-        <v>43741</v>
-      </c>
-      <c r="V6" s="37">
+        <v>43743</v>
+      </c>
+      <c r="V6" s="39">
         <f ca="1">DATEDIF(D6,U6,"d")</f>
-        <v>9</v>
-      </c>
-      <c r="W6" s="37"/>
-      <c r="X6" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="W6" s="39"/>
+      <c r="X6" s="40" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:24">
       <c r="B7" s="1"/>
-      <c r="C7" s="37"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="30">
         <v>43732</v>
       </c>
@@ -1509,7 +1512,7 @@
       <c r="F7" s="31">
         <v>3861</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="37" t="s">
         <v>84</v>
       </c>
       <c r="H7" s="29">
@@ -1546,22 +1549,15 @@
         <f>P7/J7</f>
         <v>-3.8113015873015875E-2</v>
       </c>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="R4:R5"/>
@@ -1570,6 +1566,13 @@
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="U4:U5"/>
     <mergeCell ref="W4:W5"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1598,7 +1601,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:F17"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1766,12 +1769,12 @@
       <c r="B17" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1904,10 +1907,10 @@
       </c>
     </row>
     <row r="2" spans="3:11">
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="45"/>
+      <c r="D2" s="48"/>
       <c r="E2">
         <v>8804</v>
       </c>
@@ -1916,61 +1919,61 @@
       </c>
     </row>
     <row r="3" spans="3:11">
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="45"/>
+      <c r="D3" s="48"/>
       <c r="E3">
         <v>5711</v>
       </c>
     </row>
     <row r="4" spans="3:11">
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="48"/>
     </row>
     <row r="5" spans="3:11">
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="45"/>
+      <c r="D5" s="48"/>
     </row>
     <row r="6" spans="3:11">
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="45"/>
+      <c r="D6" s="48"/>
     </row>
     <row r="7" spans="3:11">
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="45"/>
+      <c r="D7" s="48"/>
     </row>
     <row r="8" spans="3:11">
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="45"/>
+      <c r="D8" s="48"/>
       <c r="K8" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="3:11">
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="45"/>
+      <c r="D9" s="48"/>
       <c r="K9" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="3:11">
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="48"/>
       <c r="K10" s="1" t="s">
         <v>54</v>
       </c>
